--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25000" windowHeight="15600"/>
+    <workbookView xWindow="720" yWindow="0" windowWidth="25000" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="MapObjectConf" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
   <si>
     <t>道具id</t>
   </si>
@@ -37,113 +37,6 @@
   </si>
   <si>
     <t>prefabName</t>
-  </si>
-  <si>
-    <t>diqiu</t>
-  </si>
-  <si>
-    <t>face1</t>
-  </si>
-  <si>
-    <t>face2</t>
-  </si>
-  <si>
-    <t>face3</t>
-  </si>
-  <si>
-    <t>fangkuai</t>
-  </si>
-  <si>
-    <t>fangkuai2</t>
-  </si>
-  <si>
-    <t>feiji</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>flower2</t>
-  </si>
-  <si>
-    <t>flower3</t>
-  </si>
-  <si>
-    <t>flower4</t>
-  </si>
-  <si>
-    <t>flower5</t>
-  </si>
-  <si>
-    <t>flower6</t>
-  </si>
-  <si>
-    <t>flower7</t>
-  </si>
-  <si>
-    <t>ganlanqiu</t>
-  </si>
-  <si>
-    <t>hudie</t>
-  </si>
-  <si>
-    <t>jiantou</t>
-  </si>
-  <si>
-    <t>lanqiu</t>
-  </si>
-  <si>
-    <t>lanqiu2</t>
-  </si>
-  <si>
-    <t>paiqiu</t>
-  </si>
-  <si>
-    <t>siyecao</t>
-  </si>
-  <si>
-    <t>sun</t>
-  </si>
-  <si>
-    <t>sun2</t>
-  </si>
-  <si>
-    <t>sun3</t>
-  </si>
-  <si>
-    <t>sun4</t>
-  </si>
-  <si>
-    <t>sun5</t>
-  </si>
-  <si>
-    <t>wangqiu</t>
-  </si>
-  <si>
-    <t>xuehua</t>
-  </si>
-  <si>
-    <t>yu</t>
-  </si>
-  <si>
-    <t>zuqiu</t>
-  </si>
-  <si>
-    <t>circle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caomei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fangkuai1</t>
-  </si>
-  <si>
-    <t>lanqiu1</t>
-  </si>
-  <si>
-    <t>sat</t>
   </si>
   <si>
     <t>价格</t>
@@ -152,6 +45,161 @@
   <si>
     <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_icon2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_icon1</t>
+  </si>
+  <si>
+    <t>obj_icon2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_icon3</t>
+  </si>
+  <si>
+    <t>obj_icon4</t>
+  </si>
+  <si>
+    <t>obj_icon5</t>
+  </si>
+  <si>
+    <t>obj_icon6</t>
+  </si>
+  <si>
+    <t>obj_icon7</t>
+  </si>
+  <si>
+    <t>obj_icon8</t>
+  </si>
+  <si>
+    <t>obj_icon9</t>
+  </si>
+  <si>
+    <t>obj_icon10</t>
+  </si>
+  <si>
+    <t>obj_icon11</t>
+  </si>
+  <si>
+    <t>obj_icon12</t>
+  </si>
+  <si>
+    <t>obj_icon13</t>
+  </si>
+  <si>
+    <t>obj_icon14</t>
+  </si>
+  <si>
+    <t>obj_icon15</t>
+  </si>
+  <si>
+    <t>obj_icon16</t>
+  </si>
+  <si>
+    <t>obj_icon17</t>
+  </si>
+  <si>
+    <t>obj_icon18</t>
+  </si>
+  <si>
+    <t>obj_icon19</t>
+  </si>
+  <si>
+    <t>obj_icon20</t>
+  </si>
+  <si>
+    <t>obj_icon21</t>
+  </si>
+  <si>
+    <t>obj_icon22</t>
+  </si>
+  <si>
+    <t>obj_icon23</t>
+  </si>
+  <si>
+    <t>obj_icon24</t>
+  </si>
+  <si>
+    <t>obj_icon25</t>
+  </si>
+  <si>
+    <t>obj_icon26</t>
+  </si>
+  <si>
+    <t>obj_icon27</t>
+  </si>
+  <si>
+    <t>obj_icon28</t>
+  </si>
+  <si>
+    <t>obj_icon29</t>
+  </si>
+  <si>
+    <t>obj_icon30</t>
+  </si>
+  <si>
+    <t>obj_icon31</t>
+  </si>
+  <si>
+    <t>obj_icon32</t>
+  </si>
+  <si>
+    <t>obj_icon33</t>
+  </si>
+  <si>
+    <t>obj_icon34</t>
+  </si>
+  <si>
+    <t>obj_icon35</t>
+  </si>
+  <si>
+    <t>obj_icon36</t>
+  </si>
+  <si>
+    <t>obj_icon37</t>
+  </si>
+  <si>
+    <t>obj_icon38</t>
+  </si>
+  <si>
+    <t>obj_icon39</t>
+  </si>
+  <si>
+    <t>obj_icon40</t>
+  </si>
+  <si>
+    <t>obj_icon41</t>
+  </si>
+  <si>
+    <t>obj_icon42</t>
+  </si>
+  <si>
+    <t>obj_icon43</t>
+  </si>
+  <si>
+    <t>obj_icon44</t>
+  </si>
+  <si>
+    <t>obj_icon45</t>
+  </si>
+  <si>
+    <t>obj_icon46</t>
+  </si>
+  <si>
+    <t>obj_icon47</t>
+  </si>
+  <si>
+    <t>obj_icon48</t>
+  </si>
+  <si>
+    <t>obj_icon49</t>
+  </si>
+  <si>
+    <t>obj_icon50</t>
   </si>
 </sst>
 </file>
@@ -552,11 +600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -575,7 +623,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -589,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -597,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -611,10 +659,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>500</v>
@@ -625,10 +673,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>500</v>
@@ -639,10 +687,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>500</v>
@@ -653,10 +701,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>500</v>
@@ -667,10 +715,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>500</v>
@@ -681,10 +729,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>800</v>
@@ -695,10 +743,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>800</v>
@@ -709,10 +757,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>1000</v>
@@ -723,10 +771,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>1500</v>
@@ -737,10 +785,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>1500</v>
@@ -751,10 +799,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>1500</v>
@@ -765,10 +813,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>1500</v>
@@ -779,10 +827,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>1500</v>
@@ -793,10 +841,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>1500</v>
@@ -807,10 +855,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>1500</v>
@@ -821,10 +869,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>1800</v>
@@ -835,10 +883,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <v>1800</v>
@@ -849,10 +897,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>1800</v>
@@ -863,10 +911,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>1800</v>
@@ -877,10 +925,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D23">
         <v>1800</v>
@@ -891,10 +939,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D24">
         <v>1800</v>
@@ -905,10 +953,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D25">
         <v>1800</v>
@@ -919,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>1800</v>
@@ -933,10 +981,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>2000</v>
@@ -947,10 +995,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D28">
         <v>2000</v>
@@ -961,10 +1009,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D29">
         <v>2000</v>
@@ -975,10 +1023,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D30">
         <v>2000</v>
@@ -989,10 +1037,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D31">
         <v>2000</v>
@@ -1003,10 +1051,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D32">
         <v>2500</v>
@@ -1017,10 +1065,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D33">
         <v>3000</v>
@@ -1031,13 +1079,265 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D34">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47">
         <v>4000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
